--- a/IMKL2.x/0. ConceptversievoorTCS/versie16-6-2020/review/3b. 16-6-2020-ExtraRegels-changelog (Herman)pja.xlsx
+++ b/IMKL2.x/0. ConceptversievoorTCS/versie16-6-2020/review/3b. 16-6-2020-ExtraRegels-changelog (Herman)pja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\0. ConceptversievoorTCS\versie16-6-2020\review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A29D9-F0B6-4B82-B6CC-81B766C0FCD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99CADDC-F5C6-4A5B-BB1C-4EDC47D378DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-17715" yWindow="-7035" windowWidth="16890" windowHeight="10755" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>Datum</t>
   </si>
@@ -437,9 +437,6 @@
     <t>verwerkt</t>
   </si>
   <si>
-    <t>geen datatype spec bij attributen</t>
-  </si>
-  <si>
     <t>nv: is al optioneel in model</t>
   </si>
   <si>
@@ -455,13 +452,11 @@
     <t>ook in uml xsd objectcatalogus</t>
   </si>
   <si>
-    <t>? Geen verschil met UML geconstateerd</t>
-  </si>
-  <si>
-    <t>GebiedsinformatieAanvraag
+    <t>verwerkt: GebiedsinformatieAanvraag
 Belang
 Beheerder
-GebiedsinformatieLevering</t>
+GebiedsinformatieLevering
+ExtraDetailInfo</t>
   </si>
 </sst>
 </file>
@@ -991,9 +986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1583,7 +1578,7 @@
         <v>283</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="21" customFormat="1" ht="84" x14ac:dyDescent="0.2">
@@ -1601,7 +1596,7 @@
         <v>280</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -1653,7 +1648,7 @@
         <v>219</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1667,7 +1662,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1681,7 +1676,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="27">
         <v>210</v>
@@ -1707,7 +1702,7 @@
         <v>215</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.2">
@@ -1782,7 +1777,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -1911,7 +1906,7 @@
         <v>113</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -2023,7 +2018,7 @@
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3143,6 +3138,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E6CDABC94C8E4D9FF787BE52A12D70" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="42d04a1539dbe8e7765031e6c6055247">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4710195-8c97-40d8-961f-382a10a2b3ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c33fada9a9359e767f1806f1464d746a" ns2:_="">
     <xsd:import namespace="b4710195-8c97-40d8-961f-382a10a2b3ee"/>
@@ -3326,12 +3327,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
   <ds:schemaRefs>
@@ -3341,6 +3336,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D54EA7D-1189-449B-9EB0-DE39BBB00DA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3356,13 +3360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>